--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3714292355243237</v>
+        <v>0.3333339974290856</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.37142923552432366, 'ngram_match_score': 0.1410223668516979, 'weighted_ngram_match_score': 0.17413180468282632, 'syntax_match_score': 0.7229437229437229, 'dataflow_match_score': 0.44761904761904764}</t>
+          <t>{'codebleu': 0.3333339974290856, 'ngram_match_score': 0.1410223668516979, 'weighted_ngram_match_score': 0.17413180468282632, 'syntax_match_score': 0.7229437229437229, 'dataflow_match_score': 0.29523809523809524}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3333339974290856</v>
+        <v>0.3571435212386094</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3333339974290856, 'ngram_match_score': 0.1410223668516979, 'weighted_ngram_match_score': 0.17413180468282632, 'syntax_match_score': 0.7229437229437229, 'dataflow_match_score': 0.29523809523809524}</t>
+          <t>{'codebleu': 0.3571435212386094, 'ngram_match_score': 0.1410223668516979, 'weighted_ngram_match_score': 0.17413180468282632, 'syntax_match_score': 0.7229437229437229, 'dataflow_match_score': 0.3904761904761905}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
